--- a/inst/2023-mht/dataDictionary20241105.xlsx
+++ b/inst/2023-mht/dataDictionary20241105.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RIWH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9C559A-B0CC-4C66-962A-0B5A56E1D1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED3CE69-6E53-4D75-AD5B-061FDF067A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="866">
   <si>
     <t>Grupp</t>
   </si>
@@ -2676,10 +2676,7 @@
     <t>hypertension_atc</t>
   </si>
   <si>
-    <t>local_or_none</t>
-  </si>
-  <si>
-    <t>local_mht_or_none</t>
+    <t>local_or_none_mht</t>
   </si>
 </sst>
 </file>
@@ -3282,8 +3279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K159"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6335,8 +6332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6465,7 +6462,7 @@
     </row>
     <row r="2" spans="1:35" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -6530,7 +6527,7 @@
     </row>
     <row r="3" spans="1:35" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -6595,7 +6592,7 @@
     </row>
     <row r="4" spans="1:35" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
